--- a/QueriesExcel/3.xlsx
+++ b/QueriesExcel/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF913F-FFB9-465C-80E2-38AFCAAFAE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AF19FD-E094-4691-B525-BFCF7B4EC850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{828A5EAE-0ABA-43F9-B69E-5CADD36672D6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="85" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.980319444447" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{42DC8065-3EAB-4C16-A3FC-7355F03FED53}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.033659490742" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{42DC8065-3EAB-4C16-A3FC-7355F03FED53}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="7">
     <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="152" level="32767"/>
@@ -807,7 +807,7 @@
     <cacheHierarchy uniqueName="[Dim Customer].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[Dim Customer].[Title].[All]" allUniqueName="[Dim Customer].[Title].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Employee].[Address]" caption="Address" attribute="1" defaultMemberUniqueName="[Dim Employee].[Address].[All]" allUniqueName="[Dim Employee].[Address].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Employee].[Birth Date]" caption="Birth Date" attribute="1" defaultMemberUniqueName="[Dim Employee].[Birth Date].[All]" allUniqueName="[Dim Employee].[Birth Date].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Employee].[City Name]" caption="City Name" attribute="1" defaultMemberUniqueName="[Dim Employee].[City Name].[All]" allUniqueName="[Dim Employee].[City Name].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Employee].[City Name]" caption="City Name" attribute="1" defaultMemberUniqueName="[Dim Employee].[City Name].[All]" allUniqueName="[Dim Employee].[City Name].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Employee].[Employee Id UK]" caption="Employee Id UK" attribute="1" defaultMemberUniqueName="[Dim Employee].[Employee Id UK].[All]" allUniqueName="[Dim Employee].[Employee Id UK].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Employee].[Employee Id USA]" caption="Employee Id USA" attribute="1" defaultMemberUniqueName="[Dim Employee].[Employee Id USA].[All]" allUniqueName="[Dim Employee].[Employee Id USA].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Employee].[Employee Key]" caption="Employee Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Employee].[Employee Key].[All]" allUniqueName="[Dim Employee].[Employee Key].[All]" dimensionUniqueName="[Dim Employee]" displayFolder="" count="0" unbalanced="0"/>
@@ -889,14 +889,14 @@
     <cacheHierarchy uniqueName="[Order Date].[Quarter]" caption="Order Date.Quarter" attribute="1" defaultMemberUniqueName="[Order Date].[Quarter].[All]" allUniqueName="[Order Date].[Quarter].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Quarter Name]" caption="Order Date.Quarter Name" attribute="1" defaultMemberUniqueName="[Order Date].[Quarter Name].[All]" allUniqueName="[Order Date].[Quarter Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Season]" caption="Order Date.Season" attribute="1" defaultMemberUniqueName="[Order Date].[Season].[All]" allUniqueName="[Order Date].[Season].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Semester]" caption="Order Date.Semester" attribute="1" defaultMemberUniqueName="[Order Date].[Semester].[All]" allUniqueName="[Order Date].[Semester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Semester]" caption="Order Date.Semester" attribute="1" defaultMemberUniqueName="[Order Date].[Semester].[All]" allUniqueName="[Order Date].[Semester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Semester Name]" caption="Order Date.Semester Name" attribute="1" defaultMemberUniqueName="[Order Date].[Semester Name].[All]" allUniqueName="[Order Date].[Semester Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Order Date].[Trimester]" caption="Order Date.Trimester" attribute="1" defaultMemberUniqueName="[Order Date].[Trimester].[All]" allUniqueName="[Order Date].[Trimester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Trimester]" caption="Order Date.Trimester" attribute="1" defaultMemberUniqueName="[Order Date].[Trimester].[All]" allUniqueName="[Order Date].[Trimester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Trimester Name]" caption="Order Date.Trimester Name" attribute="1" defaultMemberUniqueName="[Order Date].[Trimester Name].[All]" allUniqueName="[Order Date].[Trimester Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEBE3B2B-B892-4AF1-AC97-E3F4D0FCBBAE}" name="PivotTable1" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEBE3B2B-B892-4AF1-AC97-E3F4D0FCBBAE}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:F51" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
